--- a/Document/MyDocument/交接清单/11月工资申报－于志.xlsx
+++ b/Document/MyDocument/交接清单/11月工资申报－于志.xlsx
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10月工资申报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期：2018-11-30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +126,10 @@
   </si>
   <si>
     <t>备注2：泸州加班情况：11-26 2小时 11-27 3小时 11-28 4小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月工资申报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -563,7 +563,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="32.25" customHeight="1"/>
@@ -573,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -734,7 +734,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -744,7 +744,7 @@
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -762,7 +762,7 @@
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
